--- a/CaVaTeCo/form_j_historial.xlsx
+++ b/CaVaTeCo/form_j_historial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1811C8-6288-4522-A9A4-0539023696D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E12F0F-99DC-486B-887E-ABB52ADA2649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>event_note</t>
   </si>
   <si>
-    <t>Ao deslizar novamente, poderá registrar eventos importantes na história da comunidade. Para cada evento, pode selecionar um período ou um ano exacto e, em seguida, decrescer o evento. Quando continuar, será solicitado a adicionar outro evento. Depois de gravar todos os eventos, pode selecionar 'Não adicionar'.</t>
-  </si>
-  <si>
     <t>event_year</t>
   </si>
   <si>
@@ -557,9 +554,6 @@
   </si>
   <si>
     <t>Precisa no mínimo 1 evento…</t>
-  </si>
-  <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
   </si>
   <si>
     <t>select_one_from_file enum_names.csv</t>
@@ -635,6 +629,12 @@
   </si>
   <si>
     <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+  </si>
+  <si>
+    <t>Ao deslizar novamente, poderá registrar eventos importantes na história da comunidade. Para cada evento, pode selecionar um período ou um ano exacto e, em seguida, descrever o evento. Quando continuar, será solicitado a adicionar outro evento. Depois de gravar todos os eventos, pode selecionar 'Não adicionar'.</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1226,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1381,7 +1381,6 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="248">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1970,11 +1969,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2037,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>11</v>
@@ -2076,10 +2075,10 @@
         <v>75</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="46" t="s">
         <v>108</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="69" customFormat="1" x14ac:dyDescent="0.3">
@@ -2087,10 +2086,10 @@
         <v>75</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N6" s="71" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="69" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -2098,10 +2097,10 @@
         <v>75</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N7" s="60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2119,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="L9" s="36" t="s">
@@ -2135,7 +2134,7 @@
         <v>81</v>
       </c>
       <c r="O10" s="67" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="36" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2146,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="36" customFormat="1" x14ac:dyDescent="0.3">
@@ -2163,7 +2162,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" s="57"/>
     </row>
@@ -2172,10 +2171,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="J14" s="40" t="s">
         <v>21</v>
@@ -2183,19 +2182,19 @@
     </row>
     <row r="15" spans="1:17" s="40" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="D15" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="72" t="s">
         <v>150</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>151</v>
       </c>
       <c r="J15" s="40" t="s">
         <v>21</v>
@@ -2206,10 +2205,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N16" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.3">
@@ -2223,7 +2222,7 @@
         <v>83</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="40" t="s">
         <v>21</v>
@@ -2251,13 +2250,13 @@
     </row>
     <row r="19" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="41" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>73</v>
@@ -2271,16 +2270,16 @@
     </row>
     <row r="20" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>85</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>21</v>
@@ -2291,19 +2290,19 @@
     </row>
     <row r="21" spans="1:14" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>172</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>174</v>
       </c>
       <c r="D21" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="74" t="s">
-        <v>182</v>
+      <c r="G21" s="69" t="s">
+        <v>180</v>
       </c>
       <c r="J21" s="40" t="s">
         <v>21</v>
@@ -2317,10 +2316,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J22" s="40" t="s">
         <v>21</v>
@@ -2328,19 +2327,19 @@
     </row>
     <row r="23" spans="1:14" s="40" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F23" s="72" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J23" s="40" t="s">
         <v>21</v>
@@ -2351,10 +2350,10 @@
         <v>75</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2418,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>36</v>
@@ -2432,7 +2431,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H30" s="36" t="s">
         <v>95</v>
@@ -2472,7 +2471,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H32" s="36" t="s">
         <v>95</v>
@@ -2499,24 +2498,24 @@
         <v>97</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="C35" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="F35" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="44" t="s">
         <v>105</v>
-      </c>
-      <c r="F35" s="64" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>106</v>
       </c>
       <c r="J35" s="44" t="s">
         <v>21</v>
@@ -2533,22 +2532,22 @@
         <v>37</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="21" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G37" s="11"/>
       <c r="J37" s="21" t="s">
@@ -2564,14 +2563,14 @@
         <v>17</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J38" s="12"/>
       <c r="L38" s="16" t="s">
@@ -2584,7 +2583,7 @@
         <v>26</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>35</v>
@@ -2842,7 +2841,7 @@
         <v>85</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5926,25 +5925,25 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B584" s="53"/>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B585" s="53"/>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B586" s="53"/>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B587" s="53"/>
     </row>
@@ -5953,19 +5952,19 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B589" s="53"/>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B590" s="53"/>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B591" s="53"/>
     </row>
@@ -5989,67 +5988,67 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B596" s="53"/>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B597" s="53"/>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B598" s="53"/>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B599" s="53"/>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B600" s="53"/>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B601" s="53"/>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B602" s="53"/>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B603" s="53"/>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B604" s="53"/>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B605" s="53"/>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B606" s="53"/>
     </row>
@@ -6058,13 +6057,13 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B608" s="53"/>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609" s="51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B609" s="53"/>
     </row>
@@ -6073,25 +6072,25 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B611" s="53"/>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B612" s="53"/>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B613" s="53"/>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B614" s="53"/>
     </row>
@@ -6100,31 +6099,31 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B616" s="53"/>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B617" s="53"/>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B618" s="53"/>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B619" s="53"/>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B620" s="53"/>
     </row>
@@ -6133,131 +6132,131 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B622" s="53"/>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B623" s="53"/>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B626" s="53"/>
       <c r="C626" s="54"/>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B627" s="53"/>
       <c r="C627" s="54"/>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B628" s="53"/>
       <c r="C628" s="54"/>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B629" s="53"/>
       <c r="C629" s="54"/>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B630" s="53"/>
       <c r="C630" s="54"/>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B631" s="53"/>
       <c r="C631" s="54"/>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B632" s="53"/>
       <c r="C632" s="54"/>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B633" s="53"/>
       <c r="C633" s="54"/>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B634" s="53"/>
       <c r="C634" s="54"/>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B635" s="53"/>
       <c r="C635" s="54"/>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B636" s="53"/>
       <c r="C636" s="54"/>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B637" s="53"/>
       <c r="C637" s="54"/>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B638" s="53"/>
       <c r="C638" s="54"/>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B639" s="53"/>
       <c r="C639" s="54"/>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B640" s="53"/>
       <c r="C640" s="54"/>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A641" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B641" s="53"/>
       <c r="C641" s="54"/>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A642" s="54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B642" s="53"/>
       <c r="C642" s="54"/>
@@ -6269,168 +6268,168 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A644" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B644" s="55"/>
       <c r="C644" s="54"/>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A645" s="54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B645" s="55"/>
       <c r="C645" s="54"/>
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A647" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B647" s="53"/>
       <c r="C647" s="54"/>
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A648" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B648" s="53"/>
       <c r="C648" s="54"/>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A649" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B649" s="53"/>
       <c r="C649" s="54"/>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A650" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B650" s="53"/>
       <c r="C650" s="54"/>
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A651" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B651" s="53"/>
       <c r="C651" s="54"/>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A652" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B652" s="53"/>
       <c r="C652" s="54"/>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A653" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B653" s="53"/>
       <c r="C653" s="54"/>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A654" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B654" s="53"/>
       <c r="C654" s="54"/>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A655" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B655" s="53"/>
       <c r="C655" s="54"/>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A656" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B656" s="53"/>
       <c r="C656" s="54"/>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A657" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B657" s="53"/>
       <c r="C657" s="54"/>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A658" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B658" s="53"/>
       <c r="C658" s="54"/>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A659" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B659" s="53"/>
       <c r="C659" s="54"/>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A660" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B660" s="53"/>
       <c r="C660" s="54"/>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A661" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B661" s="53"/>
       <c r="C661" s="54"/>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A662" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B662" s="53"/>
       <c r="C662" s="54"/>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A663" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B663" s="53"/>
       <c r="C663" s="54"/>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A664" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B664" s="53"/>
       <c r="C664" s="54"/>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A665" s="54" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B665" s="53"/>
       <c r="C665" s="54"/>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A668" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B668" s="53"/>
       <c r="C668" s="54"/>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A669" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B669" s="53"/>
       <c r="C669" s="54"/>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A670" s="54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B670" s="53"/>
       <c r="C670" s="54"/>
@@ -6447,483 +6446,483 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A673" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B673" s="53"/>
       <c r="C673" s="54"/>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A674" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B674" s="53"/>
       <c r="C674" s="54"/>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A675" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B675" s="53"/>
       <c r="C675" s="54"/>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A676" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B676" s="53"/>
       <c r="C676" s="54"/>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A677" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B677" s="53"/>
       <c r="C677" s="54"/>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A678" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B678" s="53"/>
       <c r="C678" s="54"/>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A679" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B679" s="53"/>
       <c r="C679" s="54"/>
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A680" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B680" s="53"/>
       <c r="C680" s="54"/>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A681" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B681" s="53"/>
       <c r="C681" s="54"/>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A682" s="54" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B682" s="53"/>
       <c r="C682" s="54"/>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A684" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B684" s="53"/>
       <c r="C684" s="54"/>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A685" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B685" s="53"/>
       <c r="C685" s="54"/>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A686" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B686" s="53"/>
       <c r="C686" s="54"/>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A687" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B687" s="53"/>
       <c r="C687" s="54"/>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A688" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B688" s="53"/>
       <c r="C688" s="54"/>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A689" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B689" s="53"/>
       <c r="C689" s="54"/>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A690" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B690" s="53"/>
       <c r="C690" s="54"/>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A691" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B691" s="53"/>
       <c r="C691" s="54"/>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A692" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B692" s="53"/>
       <c r="C692" s="54"/>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A693" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B693" s="53"/>
       <c r="C693" s="54"/>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A694" s="54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B694" s="53"/>
       <c r="C694" s="54"/>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A696" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B696" s="53"/>
       <c r="C696" s="54"/>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A697" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B697" s="53"/>
       <c r="C697" s="54"/>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A698" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B698" s="53"/>
       <c r="C698" s="54"/>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A699" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B699" s="53"/>
       <c r="C699" s="54"/>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A700" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B700" s="53"/>
       <c r="C700" s="54"/>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A701" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B701" s="53"/>
       <c r="C701" s="54"/>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A702" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B702" s="53"/>
       <c r="C702" s="54"/>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A703" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B703" s="53"/>
       <c r="C703" s="54"/>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A704" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B704" s="53"/>
       <c r="C704" s="54"/>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A705" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B705" s="53"/>
       <c r="C705" s="54"/>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A706" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B706" s="53"/>
       <c r="C706" s="54"/>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A707" s="54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B707" s="53"/>
       <c r="C707" s="54"/>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A709" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B709" s="53"/>
       <c r="C709" s="54"/>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A710" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B710" s="53"/>
       <c r="C710" s="54"/>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A711" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B711" s="53"/>
       <c r="C711" s="54"/>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A712" s="54" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B712" s="53"/>
       <c r="C712" s="54"/>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A714" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B714" s="53"/>
       <c r="C714" s="54"/>
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A715" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B715" s="53"/>
       <c r="C715" s="54"/>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A716" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B716" s="53"/>
       <c r="C716" s="54"/>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A717" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B717" s="53"/>
       <c r="C717" s="54"/>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A718" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B718" s="53"/>
       <c r="C718" s="54"/>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A719" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B719" s="53"/>
       <c r="C719" s="54"/>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A720" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B720" s="53"/>
       <c r="C720" s="54"/>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A721" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B721" s="53"/>
       <c r="C721" s="54"/>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A722" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B722" s="53"/>
       <c r="C722" s="54"/>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A723" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B723" s="53"/>
       <c r="C723" s="54"/>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A724" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B724" s="53"/>
       <c r="C724" s="54"/>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A725" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B725" s="53"/>
       <c r="C725" s="54"/>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A726" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B726" s="53"/>
       <c r="C726" s="54"/>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A727" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B727" s="53"/>
       <c r="C727" s="54"/>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A728" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B728" s="53"/>
       <c r="C728" s="54"/>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A729" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B729" s="53"/>
       <c r="C729" s="54"/>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A730" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B730" s="53"/>
       <c r="C730" s="54"/>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A731" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B731" s="53"/>
       <c r="C731" s="54"/>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A732" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B732" s="53"/>
       <c r="C732" s="54"/>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A733" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B733" s="53"/>
       <c r="C733" s="54"/>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A734" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B734" s="53"/>
       <c r="C734" s="54"/>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A735" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B735" s="53"/>
       <c r="C735" s="54"/>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A736" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B736" s="53"/>
       <c r="C736" s="54"/>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A737" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B737" s="53"/>
       <c r="C737" s="54"/>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A738" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B738" s="53"/>
       <c r="C738" s="54"/>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A739" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B739" s="53"/>
       <c r="C739" s="54"/>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A740" s="54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B740" s="53"/>
       <c r="C740" s="54"/>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A742" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B742" s="53"/>
       <c r="C742" s="54"/>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A743" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B743" s="53"/>
       <c r="C743" s="54"/>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A744" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B744" s="53"/>
       <c r="C744" s="54"/>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A745" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B745" s="53"/>
       <c r="C745" s="54"/>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A746" s="54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B746" s="53"/>
       <c r="C746" s="54"/>
@@ -6935,63 +6934,63 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A748" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B748" s="53"/>
       <c r="C748" s="54"/>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A749" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B749" s="53"/>
       <c r="C749" s="54"/>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A750" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B750" s="53"/>
       <c r="C750" s="54"/>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A751" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B751" s="53"/>
       <c r="C751" s="54"/>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A752" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B752" s="53"/>
       <c r="C752" s="54"/>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A753" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B753" s="53"/>
       <c r="C753" s="54"/>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A754" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B754" s="53"/>
       <c r="C754" s="54"/>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A755" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B755" s="53"/>
       <c r="C755" s="54"/>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A756" s="54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B756" s="53"/>
       <c r="C756" s="54"/>
@@ -7003,112 +7002,112 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A758" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B758" s="53"/>
       <c r="C758" s="54"/>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A759" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B759" s="53"/>
       <c r="C759" s="54"/>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A760" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B760" s="53"/>
       <c r="C760" s="54"/>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A761" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B761" s="53"/>
       <c r="C761" s="54"/>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A762" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B762" s="53"/>
       <c r="C762" s="54"/>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A763" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B763" s="53"/>
       <c r="C763" s="54"/>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A764" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B764" s="53"/>
       <c r="C764" s="54"/>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A765" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B765" s="53"/>
       <c r="C765" s="54"/>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A766" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B766" s="53"/>
       <c r="C766" s="54"/>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A767" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B767" s="53"/>
       <c r="C767" s="54"/>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A768" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B768" s="53"/>
       <c r="C768" s="54"/>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A769" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B769" s="53"/>
       <c r="C769" s="54"/>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A770" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B770" s="53"/>
       <c r="C770" s="54"/>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A771" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B771" s="53"/>
       <c r="C771" s="54"/>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A772" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B772" s="53"/>
       <c r="C772" s="54"/>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A773" s="54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B773" s="53"/>
       <c r="C773" s="54"/>
@@ -7120,147 +7119,147 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A775" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B775" s="53"/>
       <c r="C775" s="54"/>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A776" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B776" s="53"/>
       <c r="C776" s="54"/>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A777" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B777" s="53"/>
       <c r="C777" s="54"/>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A778" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B778" s="53"/>
       <c r="C778" s="54"/>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A779" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B779" s="53"/>
       <c r="C779" s="54"/>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A780" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B780" s="53"/>
       <c r="C780" s="54"/>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A781" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B781" s="53"/>
       <c r="C781" s="54"/>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A782" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B782" s="53"/>
       <c r="C782" s="54"/>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A783" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B783" s="53"/>
       <c r="C783" s="54"/>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A784" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B784" s="53"/>
       <c r="C784" s="54"/>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A785" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B785" s="53"/>
       <c r="C785" s="54"/>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A786" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B786" s="53"/>
       <c r="C786" s="54"/>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A787" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B787" s="53"/>
       <c r="C787" s="54"/>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A788" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B788" s="53"/>
       <c r="C788" s="54"/>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A789" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B789" s="53"/>
       <c r="C789" s="54"/>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A790" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B790" s="53"/>
       <c r="C790" s="54"/>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A791" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B791" s="53"/>
       <c r="C791" s="54"/>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A792" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B792" s="53"/>
       <c r="C792" s="54"/>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A793" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B793" s="53"/>
       <c r="C793" s="54"/>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A794" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B794" s="53"/>
       <c r="C794" s="54"/>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A795" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B795" s="53"/>
       <c r="C795" s="54"/>
@@ -7272,14 +7271,14 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A797" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B797" s="53"/>
       <c r="C797" s="54"/>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A798" s="54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B798" s="53"/>
       <c r="C798" s="54"/>
@@ -7291,21 +7290,21 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A800" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B800" s="53"/>
       <c r="C800" s="54"/>
     </row>
     <row r="801" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A801" s="54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B801" s="53"/>
       <c r="C801" s="54"/>
     </row>
     <row r="803" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A803" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B803" s="53"/>
       <c r="C803" s="54"/>
@@ -7315,7 +7314,7 @@
     </row>
     <row r="804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A804" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B804" s="53"/>
       <c r="C804" s="54"/>
@@ -7325,7 +7324,7 @@
     </row>
     <row r="805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A805" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B805" s="53"/>
       <c r="C805" s="54"/>
@@ -7335,7 +7334,7 @@
     </row>
     <row r="806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A806" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B806" s="53"/>
       <c r="C806" s="54"/>
@@ -7345,7 +7344,7 @@
     </row>
     <row r="807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A807" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B807" s="53"/>
       <c r="C807" s="54"/>
@@ -7355,7 +7354,7 @@
     </row>
     <row r="808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A808" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B808" s="53"/>
       <c r="C808" s="54"/>
@@ -7365,7 +7364,7 @@
     </row>
     <row r="809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A809" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B809" s="53"/>
       <c r="C809" s="54"/>
@@ -7375,7 +7374,7 @@
     </row>
     <row r="810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A810" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B810" s="53"/>
       <c r="C810" s="54"/>
@@ -7385,7 +7384,7 @@
     </row>
     <row r="811" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A811" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B811" s="53"/>
       <c r="C811" s="54"/>
@@ -7395,7 +7394,7 @@
     </row>
     <row r="812" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A812" s="54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B812" s="53"/>
       <c r="C812" s="54"/>
@@ -7405,84 +7404,84 @@
     </row>
     <row r="814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A814" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B814" s="53"/>
       <c r="C814" s="54"/>
     </row>
     <row r="815" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A815" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B815" s="53"/>
       <c r="C815" s="54"/>
     </row>
     <row r="816" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A816" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B816" s="53"/>
       <c r="C816" s="54"/>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A817" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B817" s="53"/>
       <c r="C817" s="54"/>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A818" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B818" s="53"/>
       <c r="C818" s="54"/>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A819" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B819" s="53"/>
       <c r="C819" s="54"/>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A820" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B820" s="53"/>
       <c r="C820" s="54"/>
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A822" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B822" s="53"/>
       <c r="C822" s="54"/>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A823" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B823" s="53"/>
       <c r="C823" s="54"/>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A824" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B824" s="53"/>
       <c r="C824" s="54"/>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A825" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B825" s="53"/>
       <c r="C825" s="54"/>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A826" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B826" s="53"/>
       <c r="C826" s="54"/>
@@ -7545,54 +7544,54 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A837" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B837" s="53"/>
       <c r="C837" s="56"/>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A838" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B838" s="53"/>
       <c r="C838" s="54"/>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A839" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B839" s="53"/>
       <c r="C839" s="54"/>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A840" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B840" s="53"/>
       <c r="C840" s="54"/>
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A842" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B842" s="53"/>
       <c r="C842" s="54"/>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A843" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B843" s="53"/>
       <c r="C843" s="54"/>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7605,8 +7604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7630,7 +7629,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>24</v>
@@ -7638,17 +7637,17 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="58">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="65"/>
       <c r="E2" s="61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
